--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H2">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I2">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J2">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.2280640446775</v>
+        <v>0.8190799290744999</v>
       </c>
       <c r="R2">
-        <v>0.91225617871</v>
+        <v>3.276319716298</v>
       </c>
       <c r="S2">
-        <v>0.0001975043533535299</v>
+        <v>0.001742850322315784</v>
       </c>
       <c r="T2">
-        <v>0.0001507294633102137</v>
+        <v>0.00136678919896609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H3">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I3">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J3">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +626,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.766065694695</v>
+        <v>0.7428285877845001</v>
       </c>
       <c r="R3">
-        <v>4.59639416817</v>
+        <v>4.456971526707</v>
       </c>
       <c r="S3">
-        <v>0.0006634158833366753</v>
+        <v>0.001580601596609065</v>
       </c>
       <c r="T3">
-        <v>0.00075944898187497</v>
+        <v>0.001859324202244142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H4">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I4">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J4">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>81.03410275967251</v>
+        <v>28.64616033564175</v>
       </c>
       <c r="R4">
-        <v>324.13641103869</v>
+        <v>114.584641342567</v>
       </c>
       <c r="S4">
-        <v>0.07017584945388618</v>
+        <v>0.06095372136696783</v>
       </c>
       <c r="T4">
-        <v>0.05355612646466038</v>
+        <v>0.04780151624865998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,10 +732,10 @@
         <v>279.11272</v>
       </c>
       <c r="I5">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J5">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>1.786274889213333</v>
+        <v>6.615994877306665</v>
       </c>
       <c r="R5">
-        <v>10.71764933528</v>
+        <v>39.69596926383999</v>
       </c>
       <c r="S5">
-        <v>0.00154692103003176</v>
+        <v>0.01407761122578394</v>
       </c>
       <c r="T5">
-        <v>0.00177084635868207</v>
+        <v>0.01656005113371894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +794,10 @@
         <v>279.11272</v>
       </c>
       <c r="I6">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J6">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +812,10 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
         <v>6.000086141840001</v>
@@ -827,10 +824,10 @@
         <v>54.00077527656</v>
       </c>
       <c r="S6">
-        <v>0.00519609803108301</v>
+        <v>0.01276707155801539</v>
       </c>
       <c r="T6">
-        <v>0.008922392706927162</v>
+        <v>0.02252761719701597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +856,10 @@
         <v>279.11272</v>
       </c>
       <c r="I7">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J7">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>634.68655541132</v>
+        <v>231.3850496242267</v>
       </c>
       <c r="R7">
-        <v>3808.11933246792</v>
+        <v>1388.31029774536</v>
       </c>
       <c r="S7">
-        <v>0.5496410356395781</v>
+        <v>0.4923445124242049</v>
       </c>
       <c r="T7">
-        <v>0.6292045991026477</v>
+        <v>0.5791643319583661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,19 +909,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H8">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I8">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J8">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +930,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N8">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O8">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P8">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q8">
-        <v>0.0004527946081666667</v>
+        <v>5.306339904386499</v>
       </c>
       <c r="R8">
-        <v>0.002716767649000001</v>
+        <v>21.225359617546</v>
       </c>
       <c r="S8">
-        <v>3.921218989796563E-07</v>
+        <v>0.01129090810847587</v>
       </c>
       <c r="T8">
-        <v>4.488837009044775E-07</v>
+        <v>0.008854627991621261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H9">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I9">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J9">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +998,22 @@
         <v>0.193473</v>
       </c>
       <c r="O9">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P9">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q9">
-        <v>0.001520934247</v>
+        <v>4.8123520520565</v>
       </c>
       <c r="R9">
-        <v>0.013688408223</v>
+        <v>28.874112312339</v>
       </c>
       <c r="S9">
-        <v>1.3171349976352E-06</v>
+        <v>0.01023979348938586</v>
       </c>
       <c r="T9">
-        <v>2.261696301077944E-06</v>
+        <v>0.01204547426855859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H10">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I10">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J10">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N10">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O10">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P10">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q10">
-        <v>0.1608837765685</v>
+        <v>185.5817220038898</v>
       </c>
       <c r="R10">
-        <v>0.9653026594110002</v>
+        <v>742.326888015559</v>
       </c>
       <c r="S10">
-        <v>0.0001393259788107679</v>
+        <v>0.3948835181150905</v>
       </c>
       <c r="T10">
-        <v>0.0001594941806704884</v>
+        <v>0.3096780718910438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H11">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I11">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J11">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1116,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N11">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O11">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P11">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q11">
-        <v>1.028956537959</v>
+        <v>0.0005736524369999999</v>
       </c>
       <c r="R11">
-        <v>4.115826151836</v>
+        <v>0.003441914622</v>
       </c>
       <c r="S11">
-        <v>0.0008910803802758677</v>
+        <v>1.220626094271867E-06</v>
       </c>
       <c r="T11">
-        <v>0.00068004611141318</v>
+        <v>1.435870774671724E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H12">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I12">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J12">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1184,22 @@
         <v>0.193473</v>
       </c>
       <c r="O12">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P12">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q12">
-        <v>3.456258553062</v>
+        <v>0.0005202488970000001</v>
       </c>
       <c r="R12">
-        <v>20.737551318372</v>
+        <v>0.004682240073</v>
       </c>
       <c r="S12">
-        <v>0.002993133404743404</v>
+        <v>1.106993256256936E-06</v>
       </c>
       <c r="T12">
-        <v>0.003426405930191989</v>
+        <v>1.953299956322246E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H13">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I13">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J13">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N13">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O13">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P13">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q13">
-        <v>365.601557010501</v>
+        <v>0.0200626814355</v>
       </c>
       <c r="R13">
-        <v>1462.406228042004</v>
+        <v>0.120376088613</v>
       </c>
       <c r="S13">
-        <v>0.3166123761617496</v>
+        <v>4.268966869434751E-05</v>
       </c>
       <c r="T13">
-        <v>0.2416291728557947</v>
+        <v>5.021754650853755E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1269,31 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H14">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I14">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J14">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1302,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N14">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O14">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P14">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q14">
-        <v>0.165231204192</v>
+        <v>0.0009480044446666667</v>
       </c>
       <c r="R14">
-        <v>0.9913872251520001</v>
+        <v>0.005688026668</v>
       </c>
       <c r="S14">
-        <v>0.00014309086811081</v>
+        <v>2.0171778031614E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001638040584072231</v>
+        <v>2.372886069262466E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H15">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I15">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J15">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1370,22 @@
         <v>0.193473</v>
       </c>
       <c r="O15">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P15">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q15">
-        <v>0.5550105778560001</v>
+        <v>0.0008597510180000001</v>
       </c>
       <c r="R15">
-        <v>4.995095200704</v>
+        <v>0.007737759162000001</v>
       </c>
       <c r="S15">
-        <v>0.0004806413279165731</v>
+        <v>1.829390863631251E-06</v>
       </c>
       <c r="T15">
-        <v>0.0008253252061829911</v>
+        <v>3.22797729239089E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H16">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I16">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J16">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N16">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O16">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P16">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q16">
-        <v>58.70878243228801</v>
+        <v>0.03315511265366667</v>
       </c>
       <c r="R16">
-        <v>352.2526945937281</v>
+        <v>0.198930675922</v>
       </c>
       <c r="S16">
-        <v>0.05084203486287669</v>
+        <v>7.054793643906179E-05</v>
       </c>
       <c r="T16">
-        <v>0.05820169908936045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H17">
-        <v>0.238679</v>
-      </c>
-      <c r="I17">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J17">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.0191995</v>
-      </c>
-      <c r="N17">
-        <v>0.038399</v>
-      </c>
-      <c r="O17">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P17">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q17">
-        <v>0.001527505820166667</v>
-      </c>
-      <c r="R17">
-        <v>0.009165034921000001</v>
-      </c>
-      <c r="S17">
-        <v>1.322826005661622E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.514312346796226E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H18">
-        <v>0.238679</v>
-      </c>
-      <c r="I18">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J18">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.193473</v>
-      </c>
-      <c r="O18">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P18">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q18">
-        <v>0.005130882463000002</v>
-      </c>
-      <c r="R18">
-        <v>0.04617794216700001</v>
-      </c>
-      <c r="S18">
-        <v>4.443364250690052E-06</v>
-      </c>
-      <c r="T18">
-        <v>7.629848503130451E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H19">
-        <v>0.238679</v>
-      </c>
-      <c r="I19">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J19">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N19">
-        <v>13.643661</v>
-      </c>
-      <c r="O19">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P19">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q19">
-        <v>0.5427425606365002</v>
-      </c>
-      <c r="R19">
-        <v>3.256455363819001</v>
-      </c>
-      <c r="S19">
-        <v>0.0004700171770939672</v>
-      </c>
-      <c r="T19">
-        <v>0.0005380547490247699</v>
+        <v>8.298832920385318E-05</v>
       </c>
     </row>
   </sheetData>
